--- a/screen/manage_attendance/DI0005/attendance.xlsx
+++ b/screen/manage_attendance/DI0005/attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,10 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>30/03</t>
+          <t>16/04</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>01/04</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Số lần vắng</t>
         </is>
@@ -489,14 +484,13 @@
           <t>2003-02-10</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>16:09</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -518,9 +512,12 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -543,14 +540,13 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>16:07</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -572,14 +568,13 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>16:04</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -601,14 +596,13 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>16:04</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -630,14 +624,13 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>16:05</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -659,14 +652,13 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>16:08</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -688,14 +680,13 @@
           <t>2003-10-27</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>16:06</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -717,14 +708,13 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>16:08</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -746,14 +736,13 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>16:03</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -775,14 +764,13 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>16:06</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -804,9 +792,12 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="n">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -829,9 +820,12 @@
           <t>2003-05-18</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="n">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -854,9 +848,12 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="n">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -879,14 +876,13 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>16:08</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -908,14 +904,13 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>16:05</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -937,9 +932,12 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="n">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -962,9 +960,12 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="n">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -987,9 +988,12 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="n">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1012,14 +1016,13 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>16:05</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1041,14 +1044,13 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>16:07</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1070,9 +1072,12 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="n">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1095,9 +1100,12 @@
           <t>2003-06-11</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="n">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1120,14 +1128,13 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>16:05</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1149,9 +1156,12 @@
           <t>2003-04-05</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="n">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1174,14 +1184,13 @@
           <t>2003-07-09</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>16:09</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1203,14 +1212,13 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>16:06</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1232,14 +1240,13 @@
           <t>2003-09-03</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>16:06</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1263,15 +1270,10 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>14:34</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>16:09</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1294,14 +1296,13 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>16:04</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1323,14 +1324,13 @@
           <t>2003-08-16</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>16:09</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1352,9 +1352,12 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="n">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1377,9 +1380,12 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="n">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1397,11 +1403,18 @@
           <t>Hoàng Tiến Đạt</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="n">
-        <v>0</v>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1423,14 +1436,13 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>16:08</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1452,14 +1464,13 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>16:09</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1481,9 +1492,12 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="n">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1506,14 +1520,13 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>16:07</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1535,9 +1548,12 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="n">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1562,16 +1578,11 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>14:34</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>16:09</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/screen/manage_attendance/DI0005/attendance.xlsx
+++ b/screen/manage_attendance/DI0005/attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,10 +456,15 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>16/04</t>
+          <t>30/03</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>01/04</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Số lần vắng</t>
         </is>
@@ -484,13 +489,14 @@
           <t>2003-02-10</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>16:09</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -512,12 +518,9 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -540,13 +543,14 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>16:07</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -568,13 +572,14 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>16:04</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -596,13 +601,14 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>16:04</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -624,13 +630,14 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>16:05</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -652,13 +659,14 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>16:08</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -680,13 +688,14 @@
           <t>2003-10-27</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>16:06</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -708,13 +717,14 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>16:08</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -736,13 +746,14 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>16:03</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -764,13 +775,14 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>16:06</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -792,12 +804,9 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -820,12 +829,9 @@
           <t>2003-05-18</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -848,12 +854,9 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -876,13 +879,14 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>16:08</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -904,13 +908,14 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>16:05</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -932,12 +937,9 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -960,12 +962,9 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -988,12 +987,9 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1016,13 +1012,14 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>16:05</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1044,13 +1041,14 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>16:07</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1072,12 +1070,9 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,12 +1095,9 @@
           <t>2003-06-11</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1128,13 +1120,14 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>1</v>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>16:05</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1156,12 +1149,9 @@
           <t>2003-04-05</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1184,13 +1174,14 @@
           <t>2003-07-09</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>1</v>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>16:09</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1212,13 +1203,14 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>1</v>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>16:06</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1240,13 +1232,14 @@
           <t>2003-09-03</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>1</v>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>16:06</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1270,10 +1263,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
+          <t>14:34</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>16:09</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1296,13 +1294,14 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>1</v>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>16:04</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1324,13 +1323,14 @@
           <t>2003-08-16</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>1</v>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>16:09</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1352,12 +1352,9 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1380,12 +1377,9 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1403,18 +1397,11 @@
           <t>Hoàng Tiến Đạt</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>1</v>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1436,13 +1423,14 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>1</v>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>16:08</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1464,13 +1452,14 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>1</v>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>16:09</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1492,12 +1481,9 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1520,13 +1506,14 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>1</v>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>16:07</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1548,12 +1535,9 @@
           <t>2003-01-01</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,11 +1562,16 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>1</v>
+          <t>14:34</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>16:09</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/screen/manage_attendance/DI0005/attendance.xlsx
+++ b/screen/manage_attendance/DI0005/attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,11 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>16/04</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Số lần vắng</t>
         </is>
       </c>
@@ -495,8 +500,13 @@
           <t>16:09</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -520,8 +530,13 @@
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
-        <v>1</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -549,8 +564,13 @@
           <t>16:07</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -578,8 +598,13 @@
           <t>16:04</t>
         </is>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -607,8 +632,13 @@
           <t>16:04</t>
         </is>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -636,8 +666,13 @@
           <t>16:05</t>
         </is>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -665,8 +700,13 @@
           <t>16:08</t>
         </is>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -694,8 +734,13 @@
           <t>16:06</t>
         </is>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -723,8 +768,13 @@
           <t>16:08</t>
         </is>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -752,8 +802,13 @@
           <t>16:03</t>
         </is>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -781,8 +836,13 @@
           <t>16:06</t>
         </is>
       </c>
-      <c r="G12" t="n">
-        <v>0</v>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -806,8 +866,13 @@
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="n">
-        <v>1</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -831,8 +896,13 @@
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="n">
-        <v>1</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -856,8 +926,13 @@
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
-      <c r="G15" t="n">
-        <v>1</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -885,8 +960,13 @@
           <t>16:08</t>
         </is>
       </c>
-      <c r="G16" t="n">
-        <v>0</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -914,8 +994,13 @@
           <t>16:05</t>
         </is>
       </c>
-      <c r="G17" t="n">
-        <v>0</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -939,8 +1024,13 @@
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="n">
-        <v>1</v>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -964,8 +1054,13 @@
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="n">
-        <v>1</v>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -989,8 +1084,13 @@
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="n">
-        <v>1</v>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1018,8 +1118,13 @@
           <t>16:05</t>
         </is>
       </c>
-      <c r="G21" t="n">
-        <v>0</v>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1047,8 +1152,13 @@
           <t>16:07</t>
         </is>
       </c>
-      <c r="G22" t="n">
-        <v>0</v>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -1072,8 +1182,13 @@
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="n">
-        <v>1</v>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -1097,8 +1212,13 @@
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
-      <c r="G24" t="n">
-        <v>1</v>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1126,8 +1246,13 @@
           <t>16:05</t>
         </is>
       </c>
-      <c r="G25" t="n">
-        <v>0</v>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1151,8 +1276,13 @@
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
-      <c r="G26" t="n">
-        <v>1</v>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -1180,8 +1310,13 @@
           <t>16:09</t>
         </is>
       </c>
-      <c r="G27" t="n">
-        <v>0</v>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -1209,8 +1344,13 @@
           <t>16:06</t>
         </is>
       </c>
-      <c r="G28" t="n">
-        <v>0</v>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1238,8 +1378,13 @@
           <t>16:06</t>
         </is>
       </c>
-      <c r="G29" t="n">
-        <v>0</v>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -1271,8 +1416,13 @@
           <t>16:09</t>
         </is>
       </c>
-      <c r="G30" t="n">
-        <v>0</v>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1300,8 +1450,13 @@
           <t>16:04</t>
         </is>
       </c>
-      <c r="G31" t="n">
-        <v>0</v>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -1329,8 +1484,13 @@
           <t>16:09</t>
         </is>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -1354,8 +1514,13 @@
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
-      <c r="G33" t="n">
-        <v>1</v>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -1379,8 +1544,13 @@
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
-      <c r="G34" t="n">
-        <v>1</v>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -1400,8 +1570,9 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="n">
-        <v>0</v>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -1429,8 +1600,13 @@
           <t>16:08</t>
         </is>
       </c>
-      <c r="G36" t="n">
-        <v>0</v>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -1458,8 +1634,13 @@
           <t>16:09</t>
         </is>
       </c>
-      <c r="G37" t="n">
-        <v>0</v>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -1483,8 +1664,13 @@
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
-      <c r="G38" t="n">
-        <v>1</v>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -1512,8 +1698,13 @@
           <t>16:07</t>
         </is>
       </c>
-      <c r="G39" t="n">
-        <v>0</v>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -1537,8 +1728,13 @@
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="n">
-        <v>1</v>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -1570,8 +1766,13 @@
           <t>16:09</t>
         </is>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
